--- a/data/trans_bre/P32C-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.43942337287669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.40063888460552</v>
+        <v>-2.400638884605519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.8076920629672067</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.824520859928715</v>
+        <v>-6.139681144179749</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.043709195970495</v>
+        <v>-5.151996622759887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.050605700567638</v>
+        <v>-4.164372888536455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.525940707823391</v>
+        <v>-5.322464582818625</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
@@ -679,7 +679,7 @@
         <v>-1</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.9482971123452051</v>
+        <v>-0.9456467877041026</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.4990450774078833</v>
+        <v>-0.6470027108240685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.156842809623029</v>
+        <v>-2.086323069154623</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.92520298798909</v>
+        <v>-1.085294944505486</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3519446986793308</v>
+        <v>0.3238044987220164</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9405229949683451</v>
+        <v>0.4444791261583224</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>0.2485881518174156</v>
+        <v>-0.1525126168627233</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5185584426399011</v>
+        <v>0.4183647483686259</v>
       </c>
     </row>
     <row r="7">
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.374492903269855</v>
+        <v>-1.4238654823939</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.860761765844887</v>
+        <v>-2.842102401177146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.704369688303629</v>
+        <v>-2.539478066324556</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.724403233013739</v>
+        <v>-1.919464245742226</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9522907641666938</v>
+        <v>-0.8171968454582942</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
@@ -776,7 +776,9 @@
       <c r="I8" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="J8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -786,27 +788,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.771162313687488</v>
+        <v>2.564256436705652</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.1791594786675703</v>
+        <v>-0.09737291565767811</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.1351358906342336</v>
+        <v>-0.1556664022848795</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3369832835536765</v>
+        <v>0.3275778097173524</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.440120998641688</v>
+        <v>3.535931908076713</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5959913256006798</v>
+        <v>1.216504617732496</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6001495289823503</v>
-      </c>
-      <c r="J9" s="6" t="inlineStr"/>
+        <v>0.6529383249390619</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.223101197836092</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,7 +833,7 @@
         <v>0.2450601298521898</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7982605171017447</v>
+        <v>0.7982605171017444</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3783921452480664</v>
@@ -841,7 +845,7 @@
         <v>0.5185109716900799</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8964666778750118</v>
+        <v>0.8964666778750113</v>
       </c>
     </row>
     <row r="11">
@@ -852,26 +856,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.463953454833496</v>
+        <v>-1.403873349789851</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.7025336217138</v>
+        <v>-1.720888082944479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6890265012955674</v>
+        <v>-0.6900639835169095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6325073550766203</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8150002019297076</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.7846197558870349</v>
+        <v>-0.8041244622839577</v>
       </c>
     </row>
     <row r="12">
@@ -882,26 +884,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.012436999157461</v>
+        <v>1.04143156084876</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.21958369637292</v>
+        <v>1.142808856010115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.750743567509666</v>
+        <v>1.748685873592815</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.490484405990415</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>3.226288113563335</v>
-      </c>
+        <v>3.563736845298115</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>5.803016425484814</v>
+        <v>3.500475047812606</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>9.305132765429683</v>
+        <v>7.428184182999676</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>-0.4817543616359278</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.142729235697688</v>
+        <v>1.142729235697689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3727175680205504</v>
@@ -937,7 +937,7 @@
         <v>-0.3040770194638096</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>2.186906606486797</v>
+        <v>2.186906606486798</v>
       </c>
     </row>
     <row r="14">
@@ -948,20 +948,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.295036080176916</v>
+        <v>-2.199704074206514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.98138677260366</v>
+        <v>-4.447206592664514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.316134499181592</v>
+        <v>-2.511843746345888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3622224706708893</v>
+        <v>-0.2770098588708166</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
@@ -972,20 +974,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.818334725462973</v>
+        <v>1.987032559093155</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.5994760677944659</v>
+        <v>-0.5530969090580331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.807004005073095</v>
+        <v>1.674731993609667</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.729257929229356</v>
+        <v>4.457424473590375</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>6.428019137292667</v>
+      </c>
       <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1009,7 +1013,7 @@
         <v>-1.072435894625839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09693845756335792</v>
+        <v>0.09693845756335757</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4513721833082835</v>
@@ -1021,7 +1025,7 @@
         <v>-0.6596706804603902</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.08107718563360512</v>
+        <v>0.08107718563360482</v>
       </c>
     </row>
     <row r="17">
@@ -1032,28 +1036,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.571341878306335</v>
+        <v>-1.684556819916345</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.50552696470178</v>
+        <v>-2.427508187489596</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.828550629618571</v>
+        <v>-1.808763065836656</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8169738478559582</v>
+        <v>-0.6993541194780666</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7792732487392773</v>
+        <v>-0.8104119259492079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.9588156895979867</v>
+        <v>-0.9615428743149367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8900844679328617</v>
+        <v>-0.8830610867472282</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5646750556940199</v>
+        <v>-0.5233312585157492</v>
       </c>
     </row>
     <row r="18">
@@ -1064,28 +1068,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1957540905609236</v>
+        <v>0.1725783657424606</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.021049666753201</v>
+        <v>-1.002809290824201</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.3308997585099374</v>
+        <v>-0.3965160216258301</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.327691890144608</v>
+        <v>1.512996547778078</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2953905814523405</v>
+        <v>0.2220874088872405</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4890201271470463</v>
+        <v>-0.5386542261876008</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.196544718792427</v>
+        <v>-0.2426893949731537</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.50849737290242</v>
+        <v>1.567078989396666</v>
       </c>
     </row>
     <row r="19">
